--- a/templates/template-suprq.xlsx
+++ b/templates/template-suprq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pamat/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D97D17-F23B-3042-8E58-F2AC4B044688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44AD5E64-59F3-F644-8410-E0F2B072104E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -431,7 +431,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -440,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -457,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -492,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -518,7 +518,7 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -613,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -700,7 +700,7 @@
         <v>3</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -717,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -726,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>3</v>
@@ -752,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -821,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -830,7 +830,7 @@
         <v>5</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -847,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -873,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -899,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>5</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
